--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T11:08:19+00:00</t>
+    <t>2024-03-28T15:28:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:28:05+00:00</t>
+    <t>2024-04-02T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T07:24:27+00:00</t>
+    <t>2024-04-02T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -540,7 +540,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>identifiant métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
+    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
   </si>
   <si>
     <t>Other identifiers associated with the document, including version independent identifiers.</t>
@@ -894,7 +894,7 @@
     <t>DocumentReference.type</t>
   </si>
   <si>
-    <t>Si la ressource contient le document CDA portant les données de individu et la décision : Code =  « 57830-2 » de la nomenclature LOINC docTypeCodes, Display = Admission request Document. Si la ressource contient le document CDA portant l'évaluation : Code = « 51848-0 » de la nomenclature LOINC docTypeCodes, Display = « Evaluation note</t>
+    <t>Code identifiant le type de document CDA véhiculé dans la ressource (Individu et Décision ou Evaluation)</t>
   </si>
   <si>
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
@@ -903,10 +903,11 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+regle-Type:Code = « 57830-2 » (Admission request Document) pour un document CDA Individu et Décision. Code = « 51848-0 » (Evaluation note) pour un document CDA portant l'Evaluation {(coding.code='57830-2') or (coding.code='51848-0')}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -4373,7 +4374,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>
@@ -5484,7 +5485,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -6149,13 +6150,11 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y33" s="2"/>
+      <c r="Z33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -6185,7 +6184,7 @@
         <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>289</v>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T13:59:53+00:00</t>
+    <t>2024-04-03T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T07:12:34+00:00</t>
+    <t>2024-04-03T15:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -903,7 +903,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sdo/ValueSet/type-document-reference-esms-valueset</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -2118,7 +2118,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.7890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:04:53+00:00</t>
+    <t>2024-04-04T12:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {content.attachment.title='Document Individu et décision' and type.coding.code='57830-2' or content.attachment.title='Document évaluation' and type.coding.code='51848-0' }</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" { (type.coding.code='57830-2' implies (content.attachment.title='Document Individu et décision')) and (type.coding.code='51848-0' implies (content.attachment.title='Document évaluation'))}</t>
   </si>
   <si>
     <t>Event</t>
@@ -904,10 +904,6 @@
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/sdo/ValueSet/type-document-reference-esms-valueset</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-regle-Type:Code = « 57830-2 » (Admission request Document) pour un document CDA Individu et Décision. Code = « 51848-0 » (Evaluation note) pour un document CDA portant l'Evaluation {(coding.code='57830-2') or (coding.code='51848-0')}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -6184,40 +6180,40 @@
         <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AO33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AP33" t="s" s="2">
+      <c r="AQ33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6239,13 +6235,13 @@
         <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6271,14 +6267,14 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6295,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6313,30 +6309,30 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AO34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AP34" t="s" s="2">
+      <c r="AQ34" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6359,16 +6355,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6418,7 +6414,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6433,37 +6429,37 @@
         <v>248</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AP35" t="s" s="2">
+      <c r="AQ35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6482,16 +6478,16 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6541,7 +6537,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6556,19 +6552,19 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -6579,10 +6575,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6605,16 +6601,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6664,7 +6660,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6679,33 +6675,33 @@
         <v>248</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AO37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6728,16 +6724,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6787,7 +6783,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6802,33 +6798,33 @@
         <v>248</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AO38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AP38" t="s" s="2">
+      <c r="AQ38" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6854,13 +6850,13 @@
         <v>243</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6910,7 +6906,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6925,13 +6921,13 @@
         <v>248</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6948,10 +6944,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6974,16 +6970,16 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7033,7 +7029,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7051,30 +7047,30 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7192,10 +7188,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7315,14 +7311,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7344,10 +7340,10 @@
         <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>143</v>
@@ -7402,7 +7398,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7440,10 +7436,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7469,13 +7465,13 @@
         <v>115</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7504,11 +7500,11 @@
         <v>195</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7525,7 +7521,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>92</v>
@@ -7543,30 +7539,30 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ44" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7589,16 +7585,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7648,7 +7644,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>92</v>
@@ -7666,30 +7662,30 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ45" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7715,16 +7711,16 @@
         <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7773,7 +7769,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7794,27 +7790,27 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7840,16 +7836,16 @@
         <v>202</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7877,11 +7873,11 @@
         <v>207</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7898,7 +7894,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7916,30 +7912,30 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AO47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP47" t="s" s="2">
+      <c r="AQ47" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7962,13 +7958,13 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8019,7 +8015,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>92</v>
@@ -8037,10 +8033,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8057,10 +8053,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8178,10 +8174,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8301,14 +8297,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8330,10 +8326,10 @@
         <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>143</v>
@@ -8388,7 +8384,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8426,10 +8422,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8452,16 +8448,16 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8511,7 +8507,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>92</v>
@@ -8523,36 +8519,36 @@
         <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AO52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP52" t="s" s="2">
+      <c r="AQ52" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8670,10 +8666,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8793,10 +8789,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8822,16 +8818,16 @@
         <v>115</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8844,7 +8840,7 @@
         <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>79</v>
@@ -8859,28 +8855,28 @@
         <v>195</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z55" t="s" s="2">
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8901,16 +8897,16 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>79</v>
@@ -8918,10 +8914,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8947,16 +8943,16 @@
         <v>115</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8969,7 +8965,7 @@
         <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>79</v>
@@ -9005,7 +9001,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9026,7 +9022,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9043,10 +9039,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9069,19 +9065,19 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9130,7 +9126,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9151,16 +9147,16 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>79</v>
@@ -9168,10 +9164,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9194,19 +9190,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9219,43 +9215,43 @@
         <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9276,16 +9272,16 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>79</v>
@@ -9293,10 +9289,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9319,19 +9315,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9380,7 +9376,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9401,7 +9397,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9418,10 +9414,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9444,19 +9440,19 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9505,7 +9501,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9526,7 +9522,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9543,10 +9539,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9572,16 +9568,16 @@
         <v>180</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9594,43 +9590,43 @@
         <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9651,7 +9647,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9668,10 +9664,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9694,17 +9690,17 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9753,7 +9749,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9774,7 +9770,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9791,10 +9787,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9817,16 +9813,16 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9855,11 +9851,11 @@
         <v>119</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9876,7 +9872,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9894,30 +9890,30 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AO63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP63" t="s" s="2">
+      <c r="AQ63" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9940,16 +9936,16 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9999,7 +9995,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10020,7 +10016,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -10037,10 +10033,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10158,10 +10154,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10281,14 +10277,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10310,10 +10306,10 @@
         <v>140</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>143</v>
@@ -10368,7 +10364,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10406,10 +10402,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10432,16 +10428,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10491,7 +10487,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10506,19 +10502,19 @@
         <v>248</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10529,10 +10525,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10558,13 +10554,13 @@
         <v>202</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10590,14 +10586,14 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10614,7 +10610,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10632,30 +10628,30 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10681,10 +10677,10 @@
         <v>233</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>236</v>
@@ -10737,7 +10733,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10755,30 +10751,30 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AO70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP70" t="s" s="2">
+      <c r="AQ70" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10804,13 +10800,13 @@
         <v>202</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10836,14 +10832,14 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10860,7 +10856,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10878,30 +10874,30 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AQ71" t="s" s="2">
-        <v>548</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10927,16 +10923,16 @@
         <v>202</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10961,14 +10957,14 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10985,7 +10981,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11003,30 +10999,30 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="AN72" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11049,16 +11045,16 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11108,7 +11104,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11126,14 +11122,14 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN73" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
       </c>
@@ -11141,15 +11137,15 @@
         <v>79</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11172,16 +11168,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11231,7 +11227,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11249,22 +11245,22 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
-        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:58:54+00:00</t>
+    <t>2024-04-05T07:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="588">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-05T07:48:28+00:00</t>
+    <t>2024-04-08T12:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" { (type.coding.code='57830-2' implies (content.attachment.title='Document Individu et décision')) and (type.coding.code='51848-0' implies (content.attachment.title='Document évaluation'))}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -926,6 +926,64 @@
   </si>
   <si>
     <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>DocumentReference.category</t>
@@ -1545,10 +1603,6 @@
   </si>
   <si>
     <t>DocumentReference.content.format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
   </si>
   <si>
     <t>Format/content rules for the document</t>
@@ -2080,7 +2134,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ74"/>
+  <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6213,14 +6267,14 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6229,20 +6283,18 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6267,13 +6319,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6291,59 +6343,59 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>113</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6352,19 +6404,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6402,68 +6454,68 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
@@ -6478,18 +6530,20 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6537,13 +6591,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>104</v>
@@ -6552,22 +6606,22 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>79</v>
@@ -6575,10 +6629,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6589,7 +6643,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6601,18 +6655,20 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6660,59 +6716,59 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6721,19 +6777,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6759,13 +6815,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6783,48 +6839,48 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6844,19 +6900,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6906,7 +6962,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6921,44 +6977,44 @@
         <v>248</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6970,16 +7026,16 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7029,13 +7085,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>104</v>
@@ -7044,33 +7100,33 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7081,7 +7137,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7090,18 +7146,20 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>181</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7150,59 +7208,59 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>113</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7214,16 +7272,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>141</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7261,96 +7319,94 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>366</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7398,28 +7454,28 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>106</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7436,10 +7492,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7447,10 +7503,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7462,16 +7518,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>115</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7497,37 +7553,37 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>104</v>
@@ -7539,10 +7595,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7554,15 +7610,15 @@
         <v>79</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7570,7 +7626,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>92</v>
@@ -7582,20 +7638,18 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7644,28 +7698,28 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>113</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7677,26 +7731,26 @@
         <v>79</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7705,23 +7759,21 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
+        <v>186</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7757,31 +7809,31 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7790,7 +7842,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7799,22 +7851,22 @@
         <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7827,25 +7879,25 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>401</v>
+        <v>152</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7870,13 +7922,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7894,7 +7946,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7906,36 +7958,36 @@
         <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7958,15 +8010,17 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7991,13 +8045,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -8015,13 +8069,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>104</v>
@@ -8033,10 +8087,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8048,15 +8102,15 @@
         <v>79</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8064,7 +8118,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>92</v>
@@ -8076,18 +8130,20 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>181</v>
+        <v>403</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8136,28 +8192,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>113</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8169,26 +8225,26 @@
         <v>79</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8197,21 +8253,23 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>141</v>
+        <v>409</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>186</v>
+        <v>410</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8247,31 +8305,31 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>408</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8280,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8289,10 +8347,10 @@
         <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51">
@@ -8304,7 +8362,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8317,25 +8375,25 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>143</v>
+        <v>419</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8360,13 +8418,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8384,7 +8442,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8396,36 +8454,36 @@
         <v>104</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>106</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8448,17 +8506,15 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8507,48 +8563,48 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>422</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8666,10 +8722,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8789,45 +8845,45 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>432</v>
+        <v>143</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>433</v>
+        <v>152</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8840,7 +8896,7 @@
         <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>79</v>
@@ -8852,13 +8908,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8876,19 +8932,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8897,7 +8953,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8906,7 +8962,7 @@
         <v>79</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>79</v>
@@ -8914,10 +8970,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8925,7 +8981,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>92</v>
@@ -8940,20 +8996,18 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>115</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8965,7 +9019,7 @@
         <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>79</v>
@@ -8977,13 +9031,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -9001,10 +9055,10 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>92</v>
@@ -9013,36 +9067,36 @@
         <v>104</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9065,20 +9119,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>448</v>
+        <v>180</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>449</v>
+        <v>181</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9126,7 +9176,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>453</v>
+        <v>183</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9135,10 +9185,10 @@
         <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9147,7 +9197,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>454</v>
+        <v>113</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9156,7 +9206,7 @@
         <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>79</v>
@@ -9164,21 +9214,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9187,23 +9237,21 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
+        <v>141</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>459</v>
+        <v>186</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9215,7 +9263,7 @@
         <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>79</v>
@@ -9239,31 +9287,31 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>463</v>
+        <v>187</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9272,7 +9320,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>464</v>
+        <v>106</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9281,7 +9329,7 @@
         <v>79</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>79</v>
@@ -9289,10 +9337,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9315,19 +9363,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>467</v>
+        <v>115</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9340,7 +9388,7 @@
         <v>79</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>79</v>
@@ -9352,13 +9400,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9376,7 +9424,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9397,7 +9445,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9406,7 +9454,7 @@
         <v>79</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>79</v>
@@ -9414,10 +9462,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9440,19 +9488,19 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9465,7 +9513,7 @@
         <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>79</v>
@@ -9477,13 +9525,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9501,7 +9549,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9522,7 +9570,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9539,10 +9587,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9550,7 +9598,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>92</v>
@@ -9562,22 +9610,22 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9590,7 +9638,7 @@
         <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>79</v>
@@ -9626,7 +9674,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9647,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9656,7 +9704,7 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>79</v>
@@ -9664,10 +9712,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9690,17 +9738,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9713,7 +9763,7 @@
         <v>79</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>79</v>
@@ -9749,7 +9799,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9770,7 +9820,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9779,7 +9829,7 @@
         <v>79</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>79</v>
@@ -9787,10 +9837,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9813,18 +9863,20 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9848,13 +9900,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9872,7 +9924,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9890,30 +9942,30 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>413</v>
+        <v>492</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9936,18 +9988,20 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9995,7 +10049,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10016,7 +10070,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -10033,10 +10087,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10044,7 +10098,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>92</v>
@@ -10056,19 +10110,23 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>180</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>181</v>
+        <v>501</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -10080,7 +10138,7 @@
         <v>79</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>79</v>
@@ -10116,7 +10174,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>183</v>
+        <v>505</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10125,10 +10183,10 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10137,7 +10195,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>113</v>
+        <v>506</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10154,21 +10212,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10177,21 +10235,21 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>140</v>
+        <v>508</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10227,31 +10285,31 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>187</v>
+        <v>512</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10260,7 +10318,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>106</v>
+        <v>492</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10277,46 +10335,44 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>371</v>
+        <v>515</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10340,13 +10396,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10364,48 +10420,48 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>372</v>
+        <v>513</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>106</v>
+        <v>432</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10416,7 +10472,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10425,19 +10481,19 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>514</v>
+        <v>378</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>312</v>
+        <v>526</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10487,34 +10543,34 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10525,10 +10581,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10539,7 +10595,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10551,17 +10607,15 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>522</v>
+        <v>181</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10586,13 +10640,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10610,28 +10664,28 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>521</v>
+        <v>183</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>528</v>
+        <v>113</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10640,29 +10694,29 @@
         <v>79</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AQ69" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10671,19 +10725,19 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>531</v>
+        <v>141</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>532</v>
+        <v>186</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10721,94 +10775,96 @@
         <v>79</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>530</v>
+        <v>187</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>534</v>
+        <v>106</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>539</v>
+        <v>389</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10832,13 +10888,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10856,48 +10912,48 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>538</v>
+        <v>391</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AQ71" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10908,7 +10964,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10920,20 +10976,18 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>202</v>
+        <v>532</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10957,13 +11011,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10981,48 +11035,48 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11033,7 +11087,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -11045,16 +11099,16 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>557</v>
+        <v>202</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>312</v>
+        <v>542</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11080,13 +11134,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -11104,48 +11158,48 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>314</v>
+        <v>545</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>315</v>
+        <v>546</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11156,7 +11210,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -11165,19 +11219,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>562</v>
+        <v>233</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>565</v>
+        <v>236</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11227,40 +11281,534 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AQ76" t="s" s="2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
-        <v>569</v>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ77" t="s" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ78" t="s" s="2">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/issues96/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/issues96/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T12:44:22+00:00</t>
+    <t>2024-04-08T13:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
